--- a/class diagram.xlsx
+++ b/class diagram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Boek</t>
   </si>
@@ -105,6 +105,84 @@
   </si>
   <si>
     <t>private voorraad_Tijdschriften varchar</t>
+  </si>
+  <si>
+    <t>public Order();</t>
+  </si>
+  <si>
+    <t>public OrderBook();</t>
+  </si>
+  <si>
+    <t>public OrderFolder();</t>
+  </si>
+  <si>
+    <t>public Print();</t>
+  </si>
+  <si>
+    <t>public PrintOrder();</t>
+  </si>
+  <si>
+    <t>public AddOrder();</t>
+  </si>
+  <si>
+    <t>public RemoveOrder();</t>
+  </si>
+  <si>
+    <t>public PrintOnDate();</t>
+  </si>
+  <si>
+    <t>public PrintLast();</t>
+  </si>
+  <si>
+    <t>public SellBook();</t>
+  </si>
+  <si>
+    <t>public SellFolder();</t>
+  </si>
+  <si>
+    <t>public AmountOfBooks();</t>
+  </si>
+  <si>
+    <t>public AmountofFolders();</t>
+  </si>
+  <si>
+    <t>public AddFolder();</t>
+  </si>
+  <si>
+    <t>public RemoveFolder();</t>
+  </si>
+  <si>
+    <t>public PrintOrders();</t>
+  </si>
+  <si>
+    <t>public AddBook();</t>
+  </si>
+  <si>
+    <t>public RemoveBook();</t>
+  </si>
+  <si>
+    <t>public setDone();</t>
+  </si>
+  <si>
+    <t>public Done();</t>
+  </si>
+  <si>
+    <t>public PrintPreviousOrder();</t>
+  </si>
+  <si>
+    <t>public PrintOrdersNotDone();</t>
+  </si>
+  <si>
+    <t>public ChangeBookMaxMin();</t>
+  </si>
+  <si>
+    <t>public ChangeFolderMaxMin();</t>
+  </si>
+  <si>
+    <t>public ChangeToOrderAmount();</t>
+  </si>
+  <si>
+    <t>Folder</t>
   </si>
 </sst>
 </file>
@@ -136,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -144,14 +222,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -466,15 +591,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:B45"/>
+  <dimension ref="B4:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -483,168 +609,303 @@
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
